--- a/basketball_training_data.xlsx
+++ b/basketball_training_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1246"/>
+  <dimension ref="A1:L1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72705,6 +72705,4414 @@
         <v>84</v>
       </c>
     </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>46.9%</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>18-19-18-21</t>
+        </is>
+      </c>
+      <c r="F1247" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>Sao Jose</t>
+        </is>
+      </c>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1247" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1247" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>16-17-16-18</t>
+        </is>
+      </c>
+      <c r="L1247" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>20-18-23-18</t>
+        </is>
+      </c>
+      <c r="F1248" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>Paulistano</t>
+        </is>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="I1248" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="J1248" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>24-20-22-18</t>
+        </is>
+      </c>
+      <c r="L1248" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>43.8%</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>15-17-19-18</t>
+        </is>
+      </c>
+      <c r="F1249" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="I1249" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1249" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>18-21-19-23</t>
+        </is>
+      </c>
+      <c r="L1249" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>19-17-18-16</t>
+        </is>
+      </c>
+      <c r="F1250" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>51.9%</t>
+        </is>
+      </c>
+      <c r="I1250" t="inlineStr">
+        <is>
+          <t>81.8%</t>
+        </is>
+      </c>
+      <c r="J1250" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>20-20-21-23</t>
+        </is>
+      </c>
+      <c r="L1250" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>18-23-17-18</t>
+        </is>
+      </c>
+      <c r="F1251" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>Franca</t>
+        </is>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>47.7%</t>
+        </is>
+      </c>
+      <c r="I1251" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1251" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>19-18-19-25</t>
+        </is>
+      </c>
+      <c r="L1251" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>18-18-18-21</t>
+        </is>
+      </c>
+      <c r="F1252" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="I1252" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1252" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>17-16-17-18</t>
+        </is>
+      </c>
+      <c r="L1252" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>19-18-18-18</t>
+        </is>
+      </c>
+      <c r="F1253" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>Cerrado</t>
+        </is>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="I1253" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1253" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>16-17-18-21</t>
+        </is>
+      </c>
+      <c r="L1253" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>21-18-20-19</t>
+        </is>
+      </c>
+      <c r="F1254" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="I1254" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1254" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>18-18-18-19</t>
+        </is>
+      </c>
+      <c r="L1254" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>18-18-21-19</t>
+        </is>
+      </c>
+      <c r="F1255" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1255" t="inlineStr">
+        <is>
+          <t>Pato</t>
+        </is>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1255" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1255" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>16-17-16-18</t>
+        </is>
+      </c>
+      <c r="L1255" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>24-20-22-18</t>
+        </is>
+      </c>
+      <c r="F1256" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1256" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>46.9%</t>
+        </is>
+      </c>
+      <c r="I1256" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1256" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>18-19-18-21</t>
+        </is>
+      </c>
+      <c r="L1256" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>45.8%</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>34.8%</t>
+        </is>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>22-17-20-19</t>
+        </is>
+      </c>
+      <c r="F1257" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="I1257" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J1257" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>18-23-24-23</t>
+        </is>
+      </c>
+      <c r="L1257" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>21-18-24-18</t>
+        </is>
+      </c>
+      <c r="F1258" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>51.9%</t>
+        </is>
+      </c>
+      <c r="I1258" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="J1258" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>23-18-23-25</t>
+        </is>
+      </c>
+      <c r="L1258" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>35.3%</t>
+        </is>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>18-20-18-23</t>
+        </is>
+      </c>
+      <c r="F1259" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="I1259" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="J1259" t="inlineStr">
+        <is>
+          <t>38.9%</t>
+        </is>
+      </c>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>23-18-21-23</t>
+        </is>
+      </c>
+      <c r="L1259" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>47.6%</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>72.7%</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>24-18-19-23</t>
+        </is>
+      </c>
+      <c r="F1260" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>Caxias do Sul</t>
+        </is>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="I1260" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1260" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>19-16-18-23</t>
+        </is>
+      </c>
+      <c r="L1260" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>32.0%</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>18-18-19-17</t>
+        </is>
+      </c>
+      <c r="F1261" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>Franca</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>51.4%</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1261" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>22-22-21-23</t>
+        </is>
+      </c>
+      <c r="L1261" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>20-21-19-23</t>
+        </is>
+      </c>
+      <c r="F1262" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>Pato Basquete</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1262" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>18-19-18-21</t>
+        </is>
+      </c>
+      <c r="L1262" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>18-19-21-19</t>
+        </is>
+      </c>
+      <c r="F1263" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J1263" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>23-18-23-22</t>
+        </is>
+      </c>
+      <c r="L1263" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>41.2%</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>23-21-23-23</t>
+        </is>
+      </c>
+      <c r="F1264" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>43.6%</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1264" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>18-19-21-23</t>
+        </is>
+      </c>
+      <c r="L1264" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>18-20-19-21</t>
+        </is>
+      </c>
+      <c r="F1265" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>73.3%</t>
+        </is>
+      </c>
+      <c r="J1265" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>21-18-20-23</t>
+        </is>
+      </c>
+      <c r="L1265" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>72.2%</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>37.0%</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>21-19-19-22</t>
+        </is>
+      </c>
+      <c r="F1266" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>51.9%</t>
+        </is>
+      </c>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>81.8%</t>
+        </is>
+      </c>
+      <c r="J1266" t="inlineStr">
+        <is>
+          <t>40.7%</t>
+        </is>
+      </c>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>23-21-23-24</t>
+        </is>
+      </c>
+      <c r="L1266" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>11-13-14-16</t>
+        </is>
+      </c>
+      <c r="F1267" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>46.3%</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1267" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>18-17-15-19</t>
+        </is>
+      </c>
+      <c r="L1267" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>23.5%</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>9-12-13-14</t>
+        </is>
+      </c>
+      <c r="F1268" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>UNC Wilmington</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>47.2%</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1268" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>16-17-20-18</t>
+        </is>
+      </c>
+      <c r="L1268" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>14-14-13-16</t>
+        </is>
+      </c>
+      <c r="F1269" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>42.6%</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1269" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>14-16-17-18</t>
+        </is>
+      </c>
+      <c r="L1269" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>14-14-14-14</t>
+        </is>
+      </c>
+      <c r="F1270" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>45.8%</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1270" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>18-18-18-18</t>
+        </is>
+      </c>
+      <c r="L1270" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>14-14-15-16</t>
+        </is>
+      </c>
+      <c r="F1271" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1271" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>16-15-16-18</t>
+        </is>
+      </c>
+      <c r="L1271" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>13-13-14-16</t>
+        </is>
+      </c>
+      <c r="F1272" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>Hofstra</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>46.3%</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1272" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>18-17-15-19</t>
+        </is>
+      </c>
+      <c r="L1272" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>23.5%</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>12-12-13-14</t>
+        </is>
+      </c>
+      <c r="F1273" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>Northeastern</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>47.2%</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1273" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>16-17-20-18</t>
+        </is>
+      </c>
+      <c r="L1273" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>15-15-13-16</t>
+        </is>
+      </c>
+      <c r="F1274" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>William &amp; Mary</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>42.6%</t>
+        </is>
+      </c>
+      <c r="I1274" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1274" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>14-16-17-18</t>
+        </is>
+      </c>
+      <c r="L1274" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>16-16-14-14</t>
+        </is>
+      </c>
+      <c r="F1275" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>45.8%</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1275" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>18-18-18-18</t>
+        </is>
+      </c>
+      <c r="L1275" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>NC A&amp;T</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>16-16-15-16</t>
+        </is>
+      </c>
+      <c r="F1276" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1276" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1276" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>16-15-16-18</t>
+        </is>
+      </c>
+      <c r="L1276" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>13-14-14-16</t>
+        </is>
+      </c>
+      <c r="F1277" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>North Carolina A&amp;T</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>41.8%</t>
+        </is>
+      </c>
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="J1277" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>18-17-15-19</t>
+        </is>
+      </c>
+      <c r="L1277" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>35.6%</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>23.1%</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>11-12-16-12</t>
+        </is>
+      </c>
+      <c r="F1278" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>North Carolina Central</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1278" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1278" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>13-14-14-16</t>
+        </is>
+      </c>
+      <c r="L1278" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>14-15-14-14</t>
+        </is>
+      </c>
+      <c r="F1279" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>UNC Wilmington</t>
+        </is>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1279" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="J1279" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>16-14-14-16</t>
+        </is>
+      </c>
+      <c r="L1279" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>37.3%</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>14-13-16-16</t>
+        </is>
+      </c>
+      <c r="F1280" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>41.2%</t>
+        </is>
+      </c>
+      <c r="I1280" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1280" t="inlineStr">
+        <is>
+          <t>35.3%</t>
+        </is>
+      </c>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>15-15-15-18</t>
+        </is>
+      </c>
+      <c r="L1280" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>14-14-14-14</t>
+        </is>
+      </c>
+      <c r="F1281" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>43.1%</t>
+        </is>
+      </c>
+      <c r="I1281" t="inlineStr">
+        <is>
+          <t>72.7%</t>
+        </is>
+      </c>
+      <c r="J1281" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>16-16-16-16</t>
+        </is>
+      </c>
+      <c r="L1281" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>38.6%</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>16-15-14-16</t>
+        </is>
+      </c>
+      <c r="F1282" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="I1282" t="inlineStr">
+        <is>
+          <t>68.2%</t>
+        </is>
+      </c>
+      <c r="J1282" t="inlineStr">
+        <is>
+          <t>31.8%</t>
+        </is>
+      </c>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>15-14-15-16</t>
+        </is>
+      </c>
+      <c r="L1282" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>39.3%</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>15-14-15-15</t>
+        </is>
+      </c>
+      <c r="F1283" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>William &amp; Mary</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>40.7%</t>
+        </is>
+      </c>
+      <c r="I1283" t="inlineStr">
+        <is>
+          <t>69.2%</t>
+        </is>
+      </c>
+      <c r="J1283" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>16-15-16-16</t>
+        </is>
+      </c>
+      <c r="L1283" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>36.7%</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>26.7%</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>14-13-14-13</t>
+        </is>
+      </c>
+      <c r="F1284" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>Northeastern</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>39.6%</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="J1284" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>15-14-15-14</t>
+        </is>
+      </c>
+      <c r="L1284" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>37.9%</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>68.2%</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>13-14-14-13</t>
+        </is>
+      </c>
+      <c r="F1285" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>Hofstra</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>38.8%</t>
+        </is>
+      </c>
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>69.6%</t>
+        </is>
+      </c>
+      <c r="J1285" t="inlineStr">
+        <is>
+          <t>30.4%</t>
+        </is>
+      </c>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>14-15-15-14</t>
+        </is>
+      </c>
+      <c r="L1285" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>14-14-14-14</t>
+        </is>
+      </c>
+      <c r="F1286" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
+        <is>
+          <t>69.2%</t>
+        </is>
+      </c>
+      <c r="J1286" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>15-15-15-15</t>
+        </is>
+      </c>
+      <c r="L1286" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>51.9%</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>81.8%</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>40.7%</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>23-21-23-24</t>
+        </is>
+      </c>
+      <c r="F1287" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="I1287" t="inlineStr">
+        <is>
+          <t>72.2%</t>
+        </is>
+      </c>
+      <c r="J1287" t="inlineStr">
+        <is>
+          <t>37.0%</t>
+        </is>
+      </c>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>21-19-19-22</t>
+        </is>
+      </c>
+      <c r="L1287" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>51.9%</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>23-18-23-25</t>
+        </is>
+      </c>
+      <c r="F1288" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1288" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>21-18-24-18</t>
+        </is>
+      </c>
+      <c r="L1288" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>38.9%</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>23-18-21-23</t>
+        </is>
+      </c>
+      <c r="F1289" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1289" t="inlineStr">
+        <is>
+          <t>35.3%</t>
+        </is>
+      </c>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>18-20-18-23</t>
+        </is>
+      </c>
+      <c r="L1289" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>19-16-18-23</t>
+        </is>
+      </c>
+      <c r="F1290" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>Caxias do Sul</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>47.6%</t>
+        </is>
+      </c>
+      <c r="I1290" t="inlineStr">
+        <is>
+          <t>72.7%</t>
+        </is>
+      </c>
+      <c r="J1290" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>24-18-19-23</t>
+        </is>
+      </c>
+      <c r="L1290" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>51.4%</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>22-22-21-23</t>
+        </is>
+      </c>
+      <c r="F1291" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>Franca</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1291" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1291" t="inlineStr">
+        <is>
+          <t>32.0%</t>
+        </is>
+      </c>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>18-18-19-17</t>
+        </is>
+      </c>
+      <c r="L1291" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>18-19-18-21</t>
+        </is>
+      </c>
+      <c r="F1292" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>Pato Basquete</t>
+        </is>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="I1292" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1292" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>20-21-19-23</t>
+        </is>
+      </c>
+      <c r="L1292" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>23-18-23-22</t>
+        </is>
+      </c>
+      <c r="F1293" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="I1293" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1293" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>18-19-21-19</t>
+        </is>
+      </c>
+      <c r="L1293" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>43.6%</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>18-19-21-23</t>
+        </is>
+      </c>
+      <c r="F1294" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="I1294" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J1294" t="inlineStr">
+        <is>
+          <t>41.2%</t>
+        </is>
+      </c>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>23-21-23-23</t>
+        </is>
+      </c>
+      <c r="L1294" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>73.3%</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>21-18-20-23</t>
+        </is>
+      </c>
+      <c r="F1295" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="I1295" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="J1295" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>18-20-19-21</t>
+        </is>
+      </c>
+      <c r="L1295" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>69.2%</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>15-15-15-15</t>
+        </is>
+      </c>
+      <c r="F1296" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="I1296" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1296" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>14-14-14-14</t>
+        </is>
+      </c>
+      <c r="L1296" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>40.6%</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>74.7%</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>32.2%</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>15-14-12-10</t>
+        </is>
+      </c>
+      <c r="F1297" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1297" t="inlineStr">
+        <is>
+          <t>Paulistano</t>
+        </is>
+      </c>
+      <c r="H1297" t="inlineStr">
+        <is>
+          <t>46.8%</t>
+        </is>
+      </c>
+      <c r="I1297" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1297" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>16-16-17-14</t>
+        </is>
+      </c>
+      <c r="L1297" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>40.5%</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>18-19-18-19</t>
+        </is>
+      </c>
+      <c r="F1298" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1298" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="H1298" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="I1298" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1298" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>20-21-18-22</t>
+        </is>
+      </c>
+      <c r="L1298" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>18-23-18-19</t>
+        </is>
+      </c>
+      <c r="F1299" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1299" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="H1299" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="I1299" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1299" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>18-19-18-19</t>
+        </is>
+      </c>
+      <c r="L1299" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>43.9%</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>72.7%</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>18-22-17-23</t>
+        </is>
+      </c>
+      <c r="F1300" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="H1300" t="inlineStr">
+        <is>
+          <t>46.8%</t>
+        </is>
+      </c>
+      <c r="I1300" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J1300" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>24-21-18-23</t>
+        </is>
+      </c>
+      <c r="L1300" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>22-18-20-22</t>
+        </is>
+      </c>
+      <c r="F1301" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="I1301" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="J1301" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>25-23-21-23</t>
+        </is>
+      </c>
+      <c r="L1301" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>38.6%</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>73.3%</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>17-16-16-16</t>
+        </is>
+      </c>
+      <c r="F1302" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>41.9%</t>
+        </is>
+      </c>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="J1302" t="inlineStr">
+        <is>
+          <t>35.0%</t>
+        </is>
+      </c>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>16-18-19-18</t>
+        </is>
+      </c>
+      <c r="L1302" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>37.3%</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>14-16-16-17</t>
+        </is>
+      </c>
+      <c r="F1303" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>Pato</t>
+        </is>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="I1303" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1303" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>19-20-20-20</t>
+        </is>
+      </c>
+      <c r="L1303" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>EC Uniao Corinthians</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>39.1%</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>16-18-18-19</t>
+        </is>
+      </c>
+      <c r="F1304" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>54.5%</t>
+        </is>
+      </c>
+      <c r="I1304" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J1304" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>24-23-24-24</t>
+        </is>
+      </c>
+      <c r="L1304" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>18-23-24-23</t>
+        </is>
+      </c>
+      <c r="F1305" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Campos</t>
+        </is>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>45.8%</t>
+        </is>
+      </c>
+      <c r="I1305" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1305" t="inlineStr">
+        <is>
+          <t>34.8%</t>
+        </is>
+      </c>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>22-17-20-19</t>
+        </is>
+      </c>
+      <c r="L1305" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>51.9%</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>23-18-23-25</t>
+        </is>
+      </c>
+      <c r="F1306" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1306" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>21-18-24-18</t>
+        </is>
+      </c>
+      <c r="L1306" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>38.9%</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>23-18-21-23</t>
+        </is>
+      </c>
+      <c r="F1307" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="I1307" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1307" t="inlineStr">
+        <is>
+          <t>35.3%</t>
+        </is>
+      </c>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>18-20-18-23</t>
+        </is>
+      </c>
+      <c r="L1307" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>19-16-18-23</t>
+        </is>
+      </c>
+      <c r="F1308" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>Caxias do Sul</t>
+        </is>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>47.6%</t>
+        </is>
+      </c>
+      <c r="I1308" t="inlineStr">
+        <is>
+          <t>72.7%</t>
+        </is>
+      </c>
+      <c r="J1308" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>24-18-19-23</t>
+        </is>
+      </c>
+      <c r="L1308" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>51.4%</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>22-22-21-23</t>
+        </is>
+      </c>
+      <c r="F1309" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>Franca</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I1309" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1309" t="inlineStr">
+        <is>
+          <t>32.0%</t>
+        </is>
+      </c>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>18-18-19-17</t>
+        </is>
+      </c>
+      <c r="L1309" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>18-19-18-21</t>
+        </is>
+      </c>
+      <c r="F1310" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>Pato Basquete</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1310" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>20-21-19-23</t>
+        </is>
+      </c>
+      <c r="L1310" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>23-18-23-22</t>
+        </is>
+      </c>
+      <c r="F1311" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="I1311" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1311" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>18-19-21-19</t>
+        </is>
+      </c>
+      <c r="L1311" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>43.6%</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>18-19-21-23</t>
+        </is>
+      </c>
+      <c r="F1312" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="J1312" t="inlineStr">
+        <is>
+          <t>41.2%</t>
+        </is>
+      </c>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>23-21-23-23</t>
+        </is>
+      </c>
+      <c r="L1312" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>46.2%</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>73.3%</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>21-18-20-23</t>
+        </is>
+      </c>
+      <c r="F1313" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="I1313" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="J1313" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>18-20-19-21</t>
+        </is>
+      </c>
+      <c r="L1313" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>69.2%</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>15-15-15-15</t>
+        </is>
+      </c>
+      <c r="F1314" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="I1314" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1314" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>14-14-14-14</t>
+        </is>
+      </c>
+      <c r="L1314" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>46.8%</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>16-16-17-14</t>
+        </is>
+      </c>
+      <c r="F1315" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>Paulistano</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>40.6%</t>
+        </is>
+      </c>
+      <c r="I1315" t="inlineStr">
+        <is>
+          <t>74.7%</t>
+        </is>
+      </c>
+      <c r="J1315" t="inlineStr">
+        <is>
+          <t>32.2%</t>
+        </is>
+      </c>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>15-14-12-10</t>
+        </is>
+      </c>
+      <c r="L1315" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>20-21-18-22</t>
+        </is>
+      </c>
+      <c r="F1316" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1316" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>40.5%</t>
+        </is>
+      </c>
+      <c r="I1316" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="J1316" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>18-19-18-19</t>
+        </is>
+      </c>
+      <c r="L1316" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>18-19-18-19</t>
+        </is>
+      </c>
+      <c r="F1317" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1317" t="inlineStr">
+        <is>
+          <t>Cearense</t>
+        </is>
+      </c>
+      <c r="H1317" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="I1317" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1317" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>18-23-18-19</t>
+        </is>
+      </c>
+      <c r="L1317" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>46.8%</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>24-21-18-23</t>
+        </is>
+      </c>
+      <c r="F1318" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1318" t="inlineStr">
+        <is>
+          <t>Unifacisa</t>
+        </is>
+      </c>
+      <c r="H1318" t="inlineStr">
+        <is>
+          <t>43.9%</t>
+        </is>
+      </c>
+      <c r="I1318" t="inlineStr">
+        <is>
+          <t>72.7%</t>
+        </is>
+      </c>
+      <c r="J1318" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>18-22-17-23</t>
+        </is>
+      </c>
+      <c r="L1318" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>25-23-21-23</t>
+        </is>
+      </c>
+      <c r="F1319" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>44.4%</t>
+        </is>
+      </c>
+      <c r="I1319" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="J1319" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>22-18-20-22</t>
+        </is>
+      </c>
+      <c r="L1319" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>41.9%</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>35.0%</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>16-18-19-18</t>
+        </is>
+      </c>
+      <c r="F1320" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>38.6%</t>
+        </is>
+      </c>
+      <c r="I1320" t="inlineStr">
+        <is>
+          <t>73.3%</t>
+        </is>
+      </c>
+      <c r="J1320" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>17-16-16-16</t>
+        </is>
+      </c>
+      <c r="L1320" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>46.7%</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>19-20-20-20</t>
+        </is>
+      </c>
+      <c r="F1321" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>Pato</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>37.3%</t>
+        </is>
+      </c>
+      <c r="I1321" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="J1321" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>14-16-16-17</t>
+        </is>
+      </c>
+      <c r="L1321" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>54.5%</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>76.5%</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>24-23-24-24</t>
+        </is>
+      </c>
+      <c r="F1322" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>39.1%</t>
+        </is>
+      </c>
+      <c r="I1322" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="J1322" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>16-18-18-19</t>
+        </is>
+      </c>
+      <c r="L1322" t="n">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
